--- a/EBooks/软三就业情况.xlsx
+++ b/EBooks/软三就业情况.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,84 +152,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>夏梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛晓宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马晓雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘秋晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈艺燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王禹琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马玉娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘书瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王建法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜智颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京京东方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安中国银行软件中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(万达软件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（岳阳农商银行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉天马微电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>东软</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛晓宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马晓雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘秋晓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈艺燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王禹琪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力鼎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马玉娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘书瑶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王建法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪潮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜智颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京京东方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安中国银行软件中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(万达软件)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（岳阳农商银行）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉天马微电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6（张伟-天津理工大学， 范玉龙-大连海事大学，王林辉-大连海事大学， 辛晓宇-大连海事大学， 马晓雅-北京理工大学， 陈艺燕-福州大学） </t>
   </si>
 </sst>
 </file>
@@ -240,13 +242,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -255,7 +257,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -263,27 +265,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -461,7 +463,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -477,7 +479,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +556,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,19 +765,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -879,7 +881,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1006,12 +1008,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1089,7 +1091,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1097,12 +1099,12 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1110,7 +1112,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1123,7 +1125,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1136,12 +1138,12 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1149,12 +1151,12 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1162,7 +1164,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1175,12 +1177,12 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1188,7 +1190,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1201,12 +1203,12 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1214,9 +1216,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" thickBot="1">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="7">
         <v>1</v>
@@ -1227,9 +1229,9 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="14.25" thickBot="1">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1">
       <c r="A35" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
@@ -1244,6 +1246,11 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="D40" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/EBooks/软三就业情况.xlsx
+++ b/EBooks/软三就业情况.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>东软</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6（张伟-天津理工大学， 范玉龙-大连海事大学，王林辉-大连海事大学， 辛晓宇-大连海事大学， 马晓雅-北京理工大学， 陈艺燕-福州大学） </t>
   </si>
 </sst>
 </file>
@@ -765,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1248,11 +1245,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
